--- a/src/predicciones/holt_winters/producto_54.xlsx
+++ b/src/predicciones/holt_winters/producto_54.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1034 +404,1034 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>1.903403971678479</v>
+        <v>2.004227328103247</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
-        <v>1.121103261961151</v>
+        <v>0.9849435635974968</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44935</v>
       </c>
       <c r="B4">
-        <v>1.902552105394419</v>
+        <v>1.999812616628539</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44939</v>
       </c>
       <c r="B5">
-        <v>1.11053595476442</v>
+        <v>0.9811062682181008</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44940</v>
       </c>
       <c r="B6">
-        <v>1.122356478213789</v>
+        <v>1.002704891602869</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44944</v>
       </c>
       <c r="B7">
-        <v>1.903505659792989</v>
+        <v>2.022017209091018</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44947</v>
       </c>
       <c r="B8">
-        <v>1.025467495540942</v>
+        <v>1.012202243783356</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44952</v>
       </c>
       <c r="B9">
-        <v>1.914890661802118</v>
+        <v>2.008634748449579</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44955</v>
       </c>
       <c r="B10">
-        <v>1.132589952084789</v>
+        <v>0.989350983943829</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44956</v>
       </c>
       <c r="B11">
-        <v>1.914038795518057</v>
+        <v>2.00422003697487</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44957</v>
       </c>
       <c r="B12">
-        <v>1.122022644888059</v>
+        <v>0.9855136885644328</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44958</v>
       </c>
       <c r="B13">
-        <v>1.133843168337428</v>
+        <v>1.007112311949201</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44963</v>
       </c>
       <c r="B14">
-        <v>1.914992349916628</v>
+        <v>2.02642462943735</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44965</v>
       </c>
       <c r="B15">
-        <v>1.036954185664581</v>
+        <v>1.016609664129688</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44967</v>
       </c>
       <c r="B16">
-        <v>1.926377351925757</v>
+        <v>2.013042168795911</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44970</v>
       </c>
       <c r="B17">
-        <v>1.144076642208428</v>
+        <v>0.993758404290161</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44972</v>
       </c>
       <c r="B18">
-        <v>1.925525485641696</v>
+        <v>2.008627457321203</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44977</v>
       </c>
       <c r="B19">
-        <v>1.133509335011698</v>
+        <v>0.989921108910765</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44979</v>
       </c>
       <c r="B20">
-        <v>1.145329858461067</v>
+        <v>1.011519732295533</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44982</v>
       </c>
       <c r="B21">
-        <v>1.926479040040267</v>
+        <v>2.030832049783682</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44996</v>
       </c>
       <c r="B22">
-        <v>1.04844087578822</v>
+        <v>1.02101708447602</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45000</v>
       </c>
       <c r="B23">
-        <v>1.937864042049396</v>
+        <v>2.017449589142243</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45003</v>
       </c>
       <c r="B24">
-        <v>1.155563332332067</v>
+        <v>0.9981658246364933</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45007</v>
       </c>
       <c r="B25">
-        <v>1.937012175765335</v>
+        <v>2.013034877667535</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45017</v>
       </c>
       <c r="B26">
-        <v>1.144996025135336</v>
+        <v>0.994328529257097</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45018</v>
       </c>
       <c r="B27">
-        <v>1.156816548584706</v>
+        <v>1.015927152641865</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45025</v>
       </c>
       <c r="B28">
-        <v>1.937965730163905</v>
+        <v>2.035239470130014</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45029</v>
       </c>
       <c r="B29">
-        <v>1.059927565911858</v>
+        <v>1.025424504822352</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45031</v>
       </c>
       <c r="B30">
-        <v>1.949350732173034</v>
+        <v>2.021857009488575</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45032</v>
       </c>
       <c r="B31">
-        <v>1.167050022455705</v>
+        <v>1.002573244982825</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45033</v>
       </c>
       <c r="B32">
-        <v>1.948498865888973</v>
+        <v>2.017442298013867</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45035</v>
       </c>
       <c r="B33">
-        <v>1.156482715258975</v>
+        <v>0.9987359496034293</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45036</v>
       </c>
       <c r="B34">
-        <v>1.168303238708344</v>
+        <v>1.020334572988197</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45038</v>
       </c>
       <c r="B35">
-        <v>1.949452420287544</v>
+        <v>2.039646890476346</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45042</v>
       </c>
       <c r="B36">
-        <v>1.071414256035497</v>
+        <v>1.029831925168684</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45045</v>
       </c>
       <c r="B37">
-        <v>1.960837422296673</v>
+        <v>2.026264429834908</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45053</v>
       </c>
       <c r="B38">
-        <v>1.178536712579344</v>
+        <v>1.006980665329158</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45054</v>
       </c>
       <c r="B39">
-        <v>1.959985556012612</v>
+        <v>2.021849718360199</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45060</v>
       </c>
       <c r="B40">
-        <v>1.167969405382614</v>
+        <v>1.003143369949761</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45069</v>
       </c>
       <c r="B41">
-        <v>1.179789928831983</v>
+        <v>1.024741993334529</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45079</v>
       </c>
       <c r="B42">
-        <v>1.960939110411183</v>
+        <v>2.044054310822679</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45084</v>
       </c>
       <c r="B43">
-        <v>1.082900946159135</v>
+        <v>1.034239345515017</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45086</v>
       </c>
       <c r="B44">
-        <v>1.972324112420312</v>
+        <v>2.03067185018124</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45090</v>
       </c>
       <c r="B45">
-        <v>1.190023402702983</v>
+        <v>1.01138808567549</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45097</v>
       </c>
       <c r="B46">
-        <v>1.971472246136251</v>
+        <v>2.026257138706531</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45099</v>
       </c>
       <c r="B47">
-        <v>1.179456095506252</v>
+        <v>1.007550790296094</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45100</v>
       </c>
       <c r="B48">
-        <v>1.191276618955622</v>
+        <v>1.029149413680862</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45107</v>
       </c>
       <c r="B49">
-        <v>1.972425800534821</v>
+        <v>2.04846173116901</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45116</v>
       </c>
       <c r="B50">
-        <v>1.094387636282774</v>
+        <v>1.038646765861349</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45124</v>
       </c>
       <c r="B51">
-        <v>1.98381080254395</v>
+        <v>2.035079270527572</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45129</v>
       </c>
       <c r="B52">
-        <v>1.201510092826621</v>
+        <v>1.015795506021822</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45131</v>
       </c>
       <c r="B53">
-        <v>1.98295893625989</v>
+        <v>2.030664559052863</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45137</v>
       </c>
       <c r="B54">
-        <v>1.190942785629891</v>
+        <v>1.011958210642426</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45143</v>
       </c>
       <c r="B55">
-        <v>1.20276330907926</v>
+        <v>1.033556834027194</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45151</v>
       </c>
       <c r="B56">
-        <v>1.98391249065846</v>
+        <v>2.052869151515343</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45158</v>
       </c>
       <c r="B57">
-        <v>1.105874326406413</v>
+        <v>1.043054186207681</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45159</v>
       </c>
       <c r="B58">
-        <v>1.995297492667589</v>
+        <v>2.039486690873904</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45162</v>
       </c>
       <c r="B59">
-        <v>1.21299678295026</v>
+        <v>1.020202926368154</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45170</v>
       </c>
       <c r="B60">
-        <v>1.994445626383528</v>
+        <v>2.035071979399195</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45174</v>
       </c>
       <c r="B61">
-        <v>1.20242947575353</v>
+        <v>1.016365630988758</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45181</v>
       </c>
       <c r="B62">
-        <v>1.214249999202899</v>
+        <v>1.037964254373526</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45182</v>
       </c>
       <c r="B63">
-        <v>1.995399180782099</v>
+        <v>2.057276571861675</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45189</v>
       </c>
       <c r="B64">
-        <v>1.117361016530052</v>
+        <v>1.047461606554013</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45198</v>
       </c>
       <c r="B65">
-        <v>2.006784182791228</v>
+        <v>2.043894111220236</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45201</v>
       </c>
       <c r="B66">
-        <v>1.224483473073899</v>
+        <v>1.024610346714486</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45203</v>
       </c>
       <c r="B67">
-        <v>2.005932316507167</v>
+        <v>2.039479399745527</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45205</v>
       </c>
       <c r="B68">
-        <v>1.213916165877168</v>
+        <v>1.02077305133509</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45210</v>
       </c>
       <c r="B69">
-        <v>1.225736689326538</v>
+        <v>1.042371674719858</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45215</v>
       </c>
       <c r="B70">
-        <v>2.006885870905737</v>
+        <v>2.061683992208007</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45218</v>
       </c>
       <c r="B71">
-        <v>1.12884770665369</v>
+        <v>1.051869026900345</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45221</v>
       </c>
       <c r="B72">
-        <v>2.018270872914866</v>
+        <v>2.048301531566568</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45222</v>
       </c>
       <c r="B73">
-        <v>1.235970163197537</v>
+        <v>1.029017767060818</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45233</v>
       </c>
       <c r="B74">
-        <v>2.017419006630806</v>
+        <v>2.043886820091859</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45235</v>
       </c>
       <c r="B75">
-        <v>1.225402856000807</v>
+        <v>1.025180471681422</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45240</v>
       </c>
       <c r="B76">
-        <v>1.237223379450176</v>
+        <v>1.04677909506619</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45247</v>
       </c>
       <c r="B77">
-        <v>2.018372561029376</v>
+        <v>2.066091412554339</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45260</v>
       </c>
       <c r="B78">
-        <v>1.140334396777329</v>
+        <v>1.056276447246677</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45270</v>
       </c>
       <c r="B79">
-        <v>2.029757563038505</v>
+        <v>2.0527089519129</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45278</v>
       </c>
       <c r="B80">
-        <v>1.247456853321176</v>
+        <v>1.03342518740715</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45279</v>
       </c>
       <c r="B81">
-        <v>2.028905696754444</v>
+        <v>2.048294240438192</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45280</v>
       </c>
       <c r="B82">
-        <v>1.236889546124446</v>
+        <v>1.029587892027754</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45284</v>
       </c>
       <c r="B83">
-        <v>1.248710069573815</v>
+        <v>1.051186515412522</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45287</v>
       </c>
       <c r="B84">
-        <v>2.029859251153015</v>
+        <v>2.070498832900671</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45293</v>
       </c>
       <c r="B85">
-        <v>1.151821086900968</v>
+        <v>1.060683867593009</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45296</v>
       </c>
       <c r="B86">
-        <v>2.041244253162144</v>
+        <v>2.057116372259232</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45307</v>
       </c>
       <c r="B87">
-        <v>1.258943543444815</v>
+        <v>1.037832607753482</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45309</v>
       </c>
       <c r="B88">
-        <v>2.040392386878083</v>
+        <v>2.052701660784524</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45314</v>
       </c>
       <c r="B89">
-        <v>1.248376236248085</v>
+        <v>1.033995312374086</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45322</v>
       </c>
       <c r="B90">
-        <v>1.260196759697454</v>
+        <v>1.055593935758854</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45324</v>
       </c>
       <c r="B91">
-        <v>2.041345941276654</v>
+        <v>2.074906253247003</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45330</v>
       </c>
       <c r="B92">
-        <v>1.163307777024606</v>
+        <v>1.065091287939341</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45331</v>
       </c>
       <c r="B93">
-        <v>2.052730943285782</v>
+        <v>2.061523792605564</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45333</v>
       </c>
       <c r="B94">
-        <v>1.270430233568454</v>
+        <v>1.042240028099815</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45334</v>
       </c>
       <c r="B95">
-        <v>2.051879077001722</v>
+        <v>2.057109081130856</v>
       </c>
       <c r="C95">
         <v>2</v>
